--- a/src/main/resources/fileImport/test11.xlsx
+++ b/src/main/resources/fileImport/test11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sourcecode\spring_js\part3\demo-library-management\src\main\resources\fileImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E5C098-D119-4035-8381-341F07ED01F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F890BCF8-B2B3-4C92-A48E-DDB69AAED789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>quantity</t>
   </si>
@@ -82,15 +82,9 @@
     <t>zed</t>
   </si>
   <si>
-    <t xml:space="preserve">Fantasy </t>
-  </si>
-  <si>
     <t>Manga</t>
   </si>
   <si>
-    <t xml:space="preserve">Cookbooks </t>
-  </si>
-  <si>
     <t>B000A70EAOOK</t>
   </si>
   <si>
@@ -110,6 +104,30 @@
   </si>
   <si>
     <t>B000LOLH00</t>
+  </si>
+  <si>
+    <t>java basic</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>Cookbooks</t>
+  </si>
+  <si>
+    <t>yone</t>
+  </si>
+  <si>
+    <t>soul</t>
+  </si>
+  <si>
+    <t>python basic</t>
+  </si>
+  <si>
+    <t>B000YONE00</t>
   </si>
 </sst>
 </file>
@@ -452,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +518,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -537,10 +555,10 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -557,7 +575,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -588,19 +606,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -608,7 +626,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -617,10 +635,50 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
